--- a/inputs/2025-06-26-Seibersdorf-PGIS4_dose.input.xlsx
+++ b/inputs/2025-06-26-Seibersdorf-PGIS4_dose.input.xlsx
@@ -96,12 +96,6 @@
     <t>subsetting</t>
   </si>
   <si>
-    <t>trimmBeginningUpTo</t>
-  </si>
-  <si>
-    <t>trimmEndAfter</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -118,6 +112,12 @@
   </si>
   <si>
     <t>2025-06-26-Seibersdorf</t>
+  </si>
+  <si>
+    <t>trimBeginningUpTo</t>
+  </si>
+  <si>
+    <t>trimEndAfter</t>
   </si>
 </sst>
 </file>
@@ -988,7 +988,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1000,10 +1000,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1051,7 +1051,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -1062,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>100</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1">
         <v>720</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
         <v>40</v>
@@ -1166,26 +1166,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d476941f-028b-41e3-b03c-0b5d733f80fc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e28c6720-69a0-4511-b744-f82cee9c107a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003F686C395C26DB46840338BECE971495" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="43b1bd120df228c0dbb137a4c9e26334">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e28c6720-69a0-4511-b744-f82cee9c107a" xmlns:ns3="d476941f-028b-41e3-b03c-0b5d733f80fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="51fce89202948bdd76463f6a0094b1c8" ns2:_="" ns3:_="">
     <xsd:import namespace="e28c6720-69a0-4511-b744-f82cee9c107a"/>
@@ -1386,26 +1366,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C531F3-1552-45D2-AD2D-397DF1E97302}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d476941f-028b-41e3-b03c-0b5d733f80fc"/>
-    <ds:schemaRef ds:uri="e28c6720-69a0-4511-b744-f82cee9c107a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43D50559-8ED4-4325-83FC-222269B5A04C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d476941f-028b-41e3-b03c-0b5d733f80fc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e28c6720-69a0-4511-b744-f82cee9c107a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E48B56-C048-4D97-8BDC-4B73D12ECF43}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1424,6 +1405,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43D50559-8ED4-4325-83FC-222269B5A04C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C531F3-1552-45D2-AD2D-397DF1E97302}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d476941f-028b-41e3-b03c-0b5d733f80fc"/>
+    <ds:schemaRef ds:uri="e28c6720-69a0-4511-b744-f82cee9c107a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{a2f21493-a4d1-4b7f-ad07-819c824f5c4a}" enabled="0" method="" siteId="{a2f21493-a4d1-4b7f-ad07-819c824f5c4a}" removed="1"/>
